--- a/data/Contact_Recreation/OrouaatAwahuriBridge_57d94fb236.xlsx
+++ b/data/Contact_Recreation/OrouaatAwahuriBridge_57d94fb236.xlsx
@@ -492,7 +492,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
@@ -531,7 +531,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
@@ -570,7 +570,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
@@ -609,7 +609,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -648,7 +648,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -687,7 +687,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -726,7 +726,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -765,7 +765,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
@@ -804,7 +804,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -843,7 +843,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -921,7 +921,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
@@ -960,7 +960,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
@@ -999,7 +999,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
@@ -1038,7 +1038,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
@@ -1233,7 +1233,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
@@ -1350,7 +1350,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
@@ -1389,7 +1389,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
@@ -1467,7 +1467,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
@@ -1545,7 +1545,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C29" s="2" t="n">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C30" s="2" t="n">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C31" s="2" t="n">
@@ -1662,7 +1662,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C32" s="2" t="n">
@@ -1701,7 +1701,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C33" s="2" t="n">
@@ -1740,7 +1740,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C34" s="2" t="n">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C35" s="2" t="n">
@@ -1818,7 +1818,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C36" s="2" t="n">
@@ -1857,7 +1857,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C37" s="2" t="n">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C38" s="2" t="n">
@@ -1935,7 +1935,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C39" s="2" t="n">
@@ -1974,7 +1974,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C40" s="2" t="n">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C41" s="2" t="n">
@@ -2052,7 +2052,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C42" s="2" t="n">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C43" s="2" t="n">
@@ -2130,7 +2130,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C44" s="2" t="n">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C45" s="2" t="n">
@@ -2208,7 +2208,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C46" s="2" t="n">
@@ -2247,7 +2247,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C47" s="2" t="n">
@@ -2286,7 +2286,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C48" s="2" t="n">
@@ -2325,7 +2325,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C49" s="2" t="n">
@@ -2364,7 +2364,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C50" s="2" t="n">
@@ -2403,7 +2403,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C51" s="2" t="n">
@@ -2442,7 +2442,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C52" s="2" t="n">
@@ -2481,7 +2481,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C53" s="2" t="n">
@@ -2520,7 +2520,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C54" s="2" t="n">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C55" s="2" t="n">
@@ -2598,7 +2598,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C56" s="2" t="n">
@@ -2637,7 +2637,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C57" s="2" t="n">
@@ -2676,7 +2676,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C58" s="2" t="n">
@@ -2715,7 +2715,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C59" s="2" t="n">
@@ -2754,7 +2754,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C60" s="2" t="n">
@@ -2793,7 +2793,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C61" s="2" t="n">
@@ -2832,7 +2832,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C62" s="2" t="n">
@@ -2871,7 +2871,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C63" s="2" t="n">
@@ -2910,7 +2910,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C64" s="2" t="n">
@@ -2949,7 +2949,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C65" s="2" t="n">
@@ -2988,7 +2988,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C66" s="2" t="n">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C67" s="2" t="n">
@@ -3066,7 +3066,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C68" s="2" t="n">
@@ -3105,7 +3105,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C69" s="2" t="n">
@@ -3144,7 +3144,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C70" s="2" t="n">
@@ -3183,7 +3183,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C71" s="2" t="n">
@@ -3222,7 +3222,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C72" s="2" t="n">
@@ -3261,7 +3261,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C73" s="2" t="n">
@@ -3300,7 +3300,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C74" s="2" t="n">
@@ -3339,7 +3339,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C75" s="2" t="n">
@@ -3378,7 +3378,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C76" s="2" t="n">
@@ -3417,7 +3417,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C77" s="2" t="n">
@@ -3456,7 +3456,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C78" s="2" t="n">
@@ -3495,7 +3495,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C79" s="2" t="n">
@@ -3534,7 +3534,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C80" s="2" t="n">
@@ -3573,7 +3573,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C81" s="2" t="n">
@@ -3612,7 +3612,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C82" s="2" t="n">
@@ -3651,7 +3651,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C83" s="2" t="n">
@@ -3690,7 +3690,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C84" s="2" t="n">
@@ -3729,7 +3729,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C85" s="2" t="n">
@@ -3768,7 +3768,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C86" s="2" t="n">
@@ -3807,7 +3807,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C87" s="2" t="n">
@@ -3846,7 +3846,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C88" s="2" t="n">
@@ -3885,7 +3885,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C89" s="2" t="n">
@@ -3924,7 +3924,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C90" s="2" t="n">
@@ -3963,7 +3963,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C91" s="2" t="n">
@@ -4002,7 +4002,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C92" s="2" t="n">
@@ -4041,7 +4041,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C93" s="2" t="n">
@@ -4080,7 +4080,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C94" s="2" t="n">
@@ -4119,7 +4119,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C95" s="2" t="n">
@@ -4158,7 +4158,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C96" s="2" t="n">
@@ -4197,7 +4197,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C97" s="2" t="n">
@@ -4236,7 +4236,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C98" s="2" t="n">
@@ -4275,7 +4275,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C99" s="2" t="n">
@@ -4314,7 +4314,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C100" s="2" t="n">
@@ -4353,7 +4353,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C101" s="2" t="n">
@@ -4392,7 +4392,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C102" s="2" t="n">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C103" s="2" t="n">
@@ -4470,7 +4470,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C104" s="2" t="n">
@@ -4509,7 +4509,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C105" s="2" t="n">
@@ -4548,7 +4548,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C106" s="2" t="n">
@@ -4587,7 +4587,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C107" s="2" t="n">
@@ -4626,7 +4626,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C108" s="2" t="n">
@@ -4665,7 +4665,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C109" s="2" t="n">
@@ -4704,7 +4704,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C110" s="2" t="n">
@@ -4743,7 +4743,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C111" s="2" t="n">
@@ -4782,7 +4782,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C112" s="2" t="n">
@@ -4821,7 +4821,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C113" s="2" t="n">
@@ -4860,7 +4860,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C114" s="2" t="n">
@@ -4899,7 +4899,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C115" s="2" t="n">
@@ -4938,7 +4938,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C116" s="2" t="n">
@@ -4977,7 +4977,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C117" s="2" t="n">
@@ -5016,7 +5016,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C118" s="2" t="n">
@@ -5055,7 +5055,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C119" s="2" t="n">
@@ -5094,7 +5094,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C120" s="2" t="n">
@@ -5133,7 +5133,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C121" s="2" t="n">
@@ -5172,7 +5172,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C122" s="2" t="n">
@@ -5211,7 +5211,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C123" s="2" t="n">
@@ -5250,7 +5250,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C124" s="2" t="n">
@@ -5289,7 +5289,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C125" s="2" t="n">
@@ -5328,7 +5328,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C126" s="2" t="n">
@@ -5367,7 +5367,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C127" s="2" t="n">
@@ -5406,7 +5406,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C128" s="2" t="n">
@@ -5445,7 +5445,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C129" s="2" t="n">
@@ -5484,7 +5484,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C130" s="2" t="n">
@@ -5523,7 +5523,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C131" s="2" t="n">
@@ -5562,7 +5562,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C132" s="2" t="n">
@@ -5601,7 +5601,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C133" s="2" t="n">
@@ -5640,7 +5640,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C134" s="2" t="n">
@@ -5679,7 +5679,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C135" s="2" t="n">
@@ -5718,7 +5718,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C136" s="2" t="n">
@@ -5757,7 +5757,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C137" s="2" t="n">
@@ -5796,7 +5796,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C138" s="2" t="n">
@@ -5835,7 +5835,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C139" s="2" t="n">
@@ -5874,7 +5874,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C140" s="2" t="n">
@@ -5913,7 +5913,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C141" s="2" t="n">
@@ -5952,7 +5952,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C142" s="2" t="n">
@@ -5991,7 +5991,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C143" s="2" t="n">
@@ -6030,7 +6030,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C144" s="2" t="n">
@@ -6069,7 +6069,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C145" s="2" t="n">
@@ -6108,7 +6108,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C146" s="2" t="n">
@@ -6147,7 +6147,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C147" s="2" t="n">
@@ -6186,7 +6186,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C148" s="2" t="n">
@@ -6225,7 +6225,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C149" s="2" t="n">
@@ -6264,7 +6264,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C150" s="2" t="n">
@@ -6303,7 +6303,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C151" s="2" t="n">
@@ -6342,7 +6342,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C152" s="2" t="n">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C153" s="2" t="n">
@@ -6420,7 +6420,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C154" s="2" t="n">
@@ -6459,7 +6459,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C155" s="2" t="n">
@@ -6498,7 +6498,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C156" s="2" t="n">
@@ -6537,7 +6537,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C157" s="2" t="n">
@@ -6576,7 +6576,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C158" s="2" t="n">
@@ -6615,7 +6615,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C159" s="2" t="n">
@@ -6654,7 +6654,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C160" s="2" t="n">
@@ -6693,7 +6693,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C161" s="2" t="n">
@@ -6732,7 +6732,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C162" s="2" t="n">
@@ -6771,7 +6771,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C163" s="2" t="n">
@@ -6810,7 +6810,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C164" s="2" t="n">
@@ -6849,7 +6849,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C165" s="2" t="n">
@@ -6888,7 +6888,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C166" s="2" t="n">
@@ -6927,7 +6927,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C167" s="2" t="n">

--- a/data/Contact_Recreation/OrouaatAwahuriBridge_57d94fb236.xlsx
+++ b/data/Contact_Recreation/OrouaatAwahuriBridge_57d94fb236.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="161">
   <si>
     <t>site name</t>
   </si>
@@ -49,400 +49,433 @@
     <t>E. coli</t>
   </si>
   <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>740</t>
-  </si>
-  <si>
-    <t>270</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>6200</t>
-  </si>
-  <si>
-    <t>190</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>460</t>
-  </si>
-  <si>
-    <t>230</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>990</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>280</t>
-  </si>
-  <si>
-    <t>&gt;9700</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>342</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>364</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>19900</t>
-  </si>
-  <si>
-    <t>156</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>860</t>
-  </si>
-  <si>
-    <t>794</t>
-  </si>
-  <si>
-    <t>767</t>
-  </si>
-  <si>
-    <t>318</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>602</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>275</t>
-  </si>
-  <si>
-    <t>218</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>13000</t>
-  </si>
-  <si>
-    <t>563</t>
-  </si>
-  <si>
-    <t>164</t>
-  </si>
-  <si>
-    <t>331</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>175</t>
-  </si>
-  <si>
-    <t>132</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>763</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>272</t>
-  </si>
-  <si>
-    <t>295</t>
-  </si>
-  <si>
-    <t>269</t>
-  </si>
-  <si>
-    <t>408</t>
-  </si>
-  <si>
-    <t>142</t>
-  </si>
-  <si>
-    <t>2098</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>379</t>
-  </si>
-  <si>
-    <t>213</t>
-  </si>
-  <si>
-    <t>1557</t>
-  </si>
-  <si>
-    <t>262</t>
-  </si>
-  <si>
-    <t>613</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>341</t>
-  </si>
-  <si>
-    <t>183</t>
-  </si>
-  <si>
-    <t>839</t>
-  </si>
-  <si>
-    <t>512</t>
-  </si>
-  <si>
-    <t>383</t>
-  </si>
-  <si>
-    <t>313</t>
-  </si>
-  <si>
-    <t>2247</t>
-  </si>
-  <si>
-    <t>420</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>288</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>24201</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>185</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t>187</t>
-  </si>
-  <si>
-    <t>279</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>909</t>
-  </si>
-  <si>
-    <t>487</t>
-  </si>
-  <si>
-    <t>173</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>2224</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>6370</t>
-  </si>
-  <si>
-    <t>5980</t>
-  </si>
-  <si>
-    <t>8410</t>
-  </si>
-  <si>
-    <t>211</t>
-  </si>
-  <si>
-    <t>3780</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>3080</t>
-  </si>
-  <si>
-    <t>15500</t>
-  </si>
-  <si>
-    <t>228</t>
-  </si>
-  <si>
-    <t>663</t>
-  </si>
-  <si>
-    <t>399</t>
-  </si>
-  <si>
-    <t>1529</t>
-  </si>
-  <si>
-    <t>209</t>
-  </si>
-  <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>471</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t>384</t>
-  </si>
-  <si>
-    <t>620</t>
-  </si>
-  <si>
-    <t>594</t>
-  </si>
-  <si>
-    <t>10500</t>
-  </si>
-  <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>776</t>
-  </si>
-  <si>
-    <t>171</t>
-  </si>
-  <si>
-    <t>882</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>624</t>
-  </si>
-  <si>
-    <t>1728</t>
-  </si>
-  <si>
-    <t>317</t>
-  </si>
-  <si>
-    <t>266</t>
-  </si>
-  <si>
-    <t>565</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>530</t>
-  </si>
-  <si>
-    <t>583</t>
-  </si>
-  <si>
-    <t>644</t>
-  </si>
-  <si>
-    <t>301</t>
-  </si>
-  <si>
-    <t>5170</t>
-  </si>
-  <si>
-    <t>323</t>
+    <t>98.0</t>
+  </si>
+  <si>
+    <t>740.0</t>
+  </si>
+  <si>
+    <t>270.0</t>
+  </si>
+  <si>
+    <t>75.0</t>
+  </si>
+  <si>
+    <t>140.0</t>
+  </si>
+  <si>
+    <t>6200.0</t>
+  </si>
+  <si>
+    <t>190.0</t>
+  </si>
+  <si>
+    <t>80.0</t>
+  </si>
+  <si>
+    <t>400.0</t>
+  </si>
+  <si>
+    <t>200.0</t>
+  </si>
+  <si>
+    <t>460.0</t>
+  </si>
+  <si>
+    <t>230.0</t>
+  </si>
+  <si>
+    <t>180.0</t>
+  </si>
+  <si>
+    <t>110.0</t>
+  </si>
+  <si>
+    <t>990.0</t>
+  </si>
+  <si>
+    <t>84.0</t>
+  </si>
+  <si>
+    <t>280.0</t>
+  </si>
+  <si>
+    <t>&gt;9700.0</t>
+  </si>
+  <si>
+    <t>150.0</t>
+  </si>
+  <si>
+    <t>41.0</t>
+  </si>
+  <si>
+    <t>86.0</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>342.0</t>
+  </si>
+  <si>
+    <t>122.0</t>
+  </si>
+  <si>
+    <t>364.0</t>
+  </si>
+  <si>
+    <t>109.0</t>
+  </si>
+  <si>
+    <t>19900.0</t>
+  </si>
+  <si>
+    <t>156.0</t>
+  </si>
+  <si>
+    <t>30.0</t>
+  </si>
+  <si>
+    <t>85.0</t>
+  </si>
+  <si>
+    <t>860.0</t>
+  </si>
+  <si>
+    <t>794.0</t>
+  </si>
+  <si>
+    <t>767.0</t>
+  </si>
+  <si>
+    <t>318.0</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>602.0</t>
+  </si>
+  <si>
+    <t>120.0</t>
+  </si>
+  <si>
+    <t>275.0</t>
+  </si>
+  <si>
+    <t>218.0</t>
+  </si>
+  <si>
+    <t>146.0</t>
+  </si>
+  <si>
+    <t>13000.0</t>
+  </si>
+  <si>
+    <t>563.0</t>
+  </si>
+  <si>
+    <t>164.0</t>
+  </si>
+  <si>
+    <t>331.0</t>
+  </si>
+  <si>
+    <t>96.0</t>
+  </si>
+  <si>
+    <t>62.0</t>
+  </si>
+  <si>
+    <t>175.0</t>
+  </si>
+  <si>
+    <t>132.0</t>
+  </si>
+  <si>
+    <t>31.0</t>
+  </si>
+  <si>
+    <t>763.0</t>
+  </si>
+  <si>
+    <t>94.0</t>
+  </si>
+  <si>
+    <t>121.0</t>
+  </si>
+  <si>
+    <t>272.0</t>
+  </si>
+  <si>
+    <t>295.0</t>
+  </si>
+  <si>
+    <t>269.0</t>
+  </si>
+  <si>
+    <t>408.0</t>
+  </si>
+  <si>
+    <t>142.0</t>
+  </si>
+  <si>
+    <t>2098.0</t>
+  </si>
+  <si>
+    <t>63.0</t>
+  </si>
+  <si>
+    <t>379.0</t>
+  </si>
+  <si>
+    <t>213.0</t>
+  </si>
+  <si>
+    <t>1557.0</t>
+  </si>
+  <si>
+    <t>262.0</t>
+  </si>
+  <si>
+    <t>613.0</t>
+  </si>
+  <si>
+    <t>197.0</t>
+  </si>
+  <si>
+    <t>341.0</t>
+  </si>
+  <si>
+    <t>183.0</t>
+  </si>
+  <si>
+    <t>839.0</t>
+  </si>
+  <si>
+    <t>512.0</t>
+  </si>
+  <si>
+    <t>383.0</t>
+  </si>
+  <si>
+    <t>313.0</t>
+  </si>
+  <si>
+    <t>2247.0</t>
+  </si>
+  <si>
+    <t>420.0</t>
+  </si>
+  <si>
+    <t>134.0</t>
+  </si>
+  <si>
+    <t>288.0</t>
+  </si>
+  <si>
+    <t>148.0</t>
+  </si>
+  <si>
+    <t>24201.0</t>
+  </si>
+  <si>
+    <t>52.0</t>
+  </si>
+  <si>
+    <t>102.0</t>
+  </si>
+  <si>
+    <t>73.0</t>
+  </si>
+  <si>
+    <t>97.0</t>
+  </si>
+  <si>
+    <t>68.0</t>
+  </si>
+  <si>
+    <t>185.0</t>
+  </si>
+  <si>
+    <t>115.0</t>
+  </si>
+  <si>
+    <t>161.0</t>
+  </si>
+  <si>
+    <t>187.0</t>
+  </si>
+  <si>
+    <t>279.0</t>
+  </si>
+  <si>
+    <t>118.0</t>
+  </si>
+  <si>
+    <t>909.0</t>
+  </si>
+  <si>
+    <t>487.0</t>
+  </si>
+  <si>
+    <t>173.0</t>
+  </si>
+  <si>
+    <t>135.0</t>
+  </si>
+  <si>
+    <t>2224.0</t>
+  </si>
+  <si>
+    <t>76.0</t>
+  </si>
+  <si>
+    <t>6370.0</t>
+  </si>
+  <si>
+    <t>5980.0</t>
+  </si>
+  <si>
+    <t>8410.0</t>
+  </si>
+  <si>
+    <t>211.0</t>
+  </si>
+  <si>
+    <t>3780.0</t>
+  </si>
+  <si>
+    <t>106.0</t>
+  </si>
+  <si>
+    <t>3080.0</t>
+  </si>
+  <si>
+    <t>15500.0</t>
+  </si>
+  <si>
+    <t>228.0</t>
+  </si>
+  <si>
+    <t>663.0</t>
+  </si>
+  <si>
+    <t>399.0</t>
+  </si>
+  <si>
+    <t>1529.0</t>
+  </si>
+  <si>
+    <t>209.0</t>
+  </si>
+  <si>
+    <t>216.0</t>
+  </si>
+  <si>
+    <t>471.0</t>
+  </si>
+  <si>
+    <t>203.0</t>
+  </si>
+  <si>
+    <t>384.0</t>
+  </si>
+  <si>
+    <t>620.0</t>
+  </si>
+  <si>
+    <t>594.0</t>
+  </si>
+  <si>
+    <t>10500.0</t>
+  </si>
+  <si>
+    <t>168.0</t>
+  </si>
+  <si>
+    <t>776.0</t>
+  </si>
+  <si>
+    <t>171.0</t>
+  </si>
+  <si>
+    <t>882.0</t>
+  </si>
+  <si>
+    <t>2310.0</t>
+  </si>
+  <si>
+    <t>160.0</t>
+  </si>
+  <si>
+    <t>624.0</t>
+  </si>
+  <si>
+    <t>1728.0</t>
+  </si>
+  <si>
+    <t>317.0</t>
+  </si>
+  <si>
+    <t>266.0</t>
+  </si>
+  <si>
+    <t>565.0</t>
+  </si>
+  <si>
+    <t>95.0</t>
+  </si>
+  <si>
+    <t>530.0</t>
+  </si>
+  <si>
+    <t>583.0</t>
+  </si>
+  <si>
+    <t>644.0</t>
+  </si>
+  <si>
+    <t>301.0</t>
+  </si>
+  <si>
+    <t>5170.0</t>
+  </si>
+  <si>
+    <t>323.0</t>
+  </si>
+  <si>
+    <t>9208.0</t>
+  </si>
+  <si>
+    <t>201.0</t>
+  </si>
+  <si>
+    <t>285.0</t>
+  </si>
+  <si>
+    <t>131.0</t>
+  </si>
+  <si>
+    <t>402.0</t>
+  </si>
+  <si>
+    <t>3873.0</t>
+  </si>
+  <si>
+    <t>749.0</t>
+  </si>
+  <si>
+    <t>520.0</t>
+  </si>
+  <si>
+    <t>1989.0</t>
+  </si>
+  <si>
+    <t>422.0</t>
+  </si>
+  <si>
+    <t>7701.0</t>
   </si>
   <si>
     <t>Science - Contact Recreation</t>
@@ -458,6 +491,9 @@
   </si>
   <si>
     <t>APHA 23rd Ed. 9223 B</t>
+  </si>
+  <si>
+    <t>SMEWW 9223B</t>
   </si>
   <si>
     <t>MPN/100mL</t>
@@ -822,7 +858,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I192"/>
+  <dimension ref="A1:I217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -871,13 +907,13 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F2" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="G2" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H2">
         <v>600</v>
@@ -897,13 +933,13 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F3" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="G3" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H3">
         <v>600</v>
@@ -923,13 +959,13 @@
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F4" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="G4" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H4">
         <v>600</v>
@@ -949,13 +985,13 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F5" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="G5" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H5">
         <v>600</v>
@@ -975,13 +1011,13 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F6" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="G6" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H6">
         <v>600</v>
@@ -1001,13 +1037,13 @@
         <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F7" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="G7" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H7">
         <v>600</v>
@@ -1027,13 +1063,13 @@
         <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F8" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="G8" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H8">
         <v>600</v>
@@ -1053,13 +1089,13 @@
         <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="F9" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="G9" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H9">
         <v>600</v>
@@ -1079,13 +1115,13 @@
         <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F10" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="G10" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H10">
         <v>600</v>
@@ -1105,13 +1141,13 @@
         <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F11" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="G11" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H11">
         <v>600</v>
@@ -1131,13 +1167,13 @@
         <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F12" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="G12" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H12">
         <v>600</v>
@@ -1157,13 +1193,13 @@
         <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F13" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="G13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H13">
         <v>600</v>
@@ -1183,13 +1219,13 @@
         <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F14" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="G14" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H14">
         <v>600</v>
@@ -1209,13 +1245,13 @@
         <v>24</v>
       </c>
       <c r="E15" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F15" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="G15" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H15">
         <v>600</v>
@@ -1235,13 +1271,13 @@
         <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="F16" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="G16" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H16">
         <v>600</v>
@@ -1261,13 +1297,13 @@
         <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F17" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="G17" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H17">
         <v>600</v>
@@ -1287,13 +1323,13 @@
         <v>26</v>
       </c>
       <c r="E18" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="F18" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="G18" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H18">
         <v>600</v>
@@ -1313,13 +1349,13 @@
         <v>27</v>
       </c>
       <c r="E19" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F19" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="G19" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H19">
         <v>600</v>
@@ -1339,13 +1375,13 @@
         <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="F20" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="G20" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H20">
         <v>600</v>
@@ -1365,13 +1401,13 @@
         <v>29</v>
       </c>
       <c r="E21" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F21" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="G21" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H21">
         <v>600</v>
@@ -1391,13 +1427,13 @@
         <v>29</v>
       </c>
       <c r="E22" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="F22" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="G22" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H22">
         <v>600</v>
@@ -1417,13 +1453,13 @@
         <v>14</v>
       </c>
       <c r="E23" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F23" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="G23" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H23">
         <v>600</v>
@@ -1443,13 +1479,13 @@
         <v>30</v>
       </c>
       <c r="E24" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F24" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="G24" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H24">
         <v>600</v>
@@ -1469,13 +1505,13 @@
         <v>31</v>
       </c>
       <c r="E25" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F25" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="G25" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H25">
         <v>600</v>
@@ -1495,13 +1531,13 @@
         <v>32</v>
       </c>
       <c r="E26" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F26" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="G26" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H26">
         <v>600</v>
@@ -1521,13 +1557,13 @@
         <v>33</v>
       </c>
       <c r="E27" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F27" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="G27" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H27">
         <v>600</v>
@@ -1547,13 +1583,13 @@
         <v>34</v>
       </c>
       <c r="E28" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F28" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="G28" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H28">
         <v>600</v>
@@ -1573,13 +1609,13 @@
         <v>35</v>
       </c>
       <c r="E29" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F29" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="G29" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H29">
         <v>600</v>
@@ -1599,13 +1635,13 @@
         <v>36</v>
       </c>
       <c r="E30" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F30" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="G30" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H30">
         <v>600</v>
@@ -1625,13 +1661,13 @@
         <v>37</v>
       </c>
       <c r="E31" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F31" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="G31" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H31">
         <v>600</v>
@@ -1651,13 +1687,13 @@
         <v>38</v>
       </c>
       <c r="E32" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F32" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="G32" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H32">
         <v>600</v>
@@ -1677,13 +1713,13 @@
         <v>39</v>
       </c>
       <c r="E33" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F33" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="G33" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H33">
         <v>600</v>
@@ -1703,13 +1739,13 @@
         <v>40</v>
       </c>
       <c r="E34" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F34" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="G34" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H34">
         <v>600</v>
@@ -1729,13 +1765,13 @@
         <v>41</v>
       </c>
       <c r="E35" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F35" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="G35" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H35">
         <v>600</v>
@@ -1755,13 +1791,13 @@
         <v>42</v>
       </c>
       <c r="E36" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F36" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="G36" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H36">
         <v>600</v>
@@ -1781,13 +1817,13 @@
         <v>43</v>
       </c>
       <c r="E37" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F37" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="G37" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H37">
         <v>600</v>
@@ -1807,13 +1843,13 @@
         <v>34</v>
       </c>
       <c r="E38" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F38" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="G38" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H38">
         <v>600</v>
@@ -1833,13 +1869,13 @@
         <v>44</v>
       </c>
       <c r="E39" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F39" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="G39" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H39">
         <v>600</v>
@@ -1859,13 +1895,13 @@
         <v>45</v>
       </c>
       <c r="E40" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F40" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="G40" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H40">
         <v>600</v>
@@ -1885,13 +1921,13 @@
         <v>46</v>
       </c>
       <c r="E41" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F41" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="G41" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H41">
         <v>600</v>
@@ -1911,13 +1947,13 @@
         <v>47</v>
       </c>
       <c r="E42" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F42" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="G42" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H42">
         <v>600</v>
@@ -1937,13 +1973,13 @@
         <v>48</v>
       </c>
       <c r="E43" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F43" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="G43" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H43">
         <v>600</v>
@@ -1963,13 +1999,13 @@
         <v>49</v>
       </c>
       <c r="E44" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F44" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="G44" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H44">
         <v>600</v>
@@ -1989,13 +2025,13 @@
         <v>50</v>
       </c>
       <c r="E45" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F45" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="G45" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H45">
         <v>600</v>
@@ -2015,13 +2051,13 @@
         <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F46" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="G46" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H46">
         <v>600</v>
@@ -2041,13 +2077,13 @@
         <v>50</v>
       </c>
       <c r="E47" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F47" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="G47" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H47">
         <v>600</v>
@@ -2067,13 +2103,13 @@
         <v>51</v>
       </c>
       <c r="E48" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F48" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="G48" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H48">
         <v>600</v>
@@ -2093,13 +2129,13 @@
         <v>52</v>
       </c>
       <c r="E49" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F49" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="G49" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H49">
         <v>600</v>
@@ -2119,13 +2155,13 @@
         <v>53</v>
       </c>
       <c r="E50" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F50" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="G50" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H50">
         <v>600</v>
@@ -2145,13 +2181,13 @@
         <v>54</v>
       </c>
       <c r="E51" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F51" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="G51" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H51">
         <v>600</v>
@@ -2171,13 +2207,13 @@
         <v>55</v>
       </c>
       <c r="E52" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F52" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="G52" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H52">
         <v>600</v>
@@ -2197,13 +2233,13 @@
         <v>55</v>
       </c>
       <c r="E53" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F53" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="G53" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H53">
         <v>600</v>
@@ -2223,13 +2259,13 @@
         <v>56</v>
       </c>
       <c r="E54" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F54" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="G54" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H54">
         <v>600</v>
@@ -2249,13 +2285,13 @@
         <v>57</v>
       </c>
       <c r="E55" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F55" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="G55" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H55">
         <v>600</v>
@@ -2275,13 +2311,13 @@
         <v>58</v>
       </c>
       <c r="E56" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F56" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="G56" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H56">
         <v>600</v>
@@ -2301,13 +2337,13 @@
         <v>14</v>
       </c>
       <c r="E57" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F57" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="G57" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H57">
         <v>600</v>
@@ -2327,13 +2363,13 @@
         <v>45</v>
       </c>
       <c r="E58" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F58" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="G58" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H58">
         <v>600</v>
@@ -2353,13 +2389,13 @@
         <v>59</v>
       </c>
       <c r="E59" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F59" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="G59" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H59">
         <v>600</v>
@@ -2379,13 +2415,13 @@
         <v>30</v>
       </c>
       <c r="E60" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F60" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="G60" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H60">
         <v>600</v>
@@ -2405,13 +2441,13 @@
         <v>14</v>
       </c>
       <c r="E61" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F61" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="G61" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H61">
         <v>600</v>
@@ -2431,13 +2467,13 @@
         <v>60</v>
       </c>
       <c r="E62" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F62" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="G62" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H62">
         <v>600</v>
@@ -2457,13 +2493,13 @@
         <v>61</v>
       </c>
       <c r="E63" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F63" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="G63" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H63">
         <v>600</v>
@@ -2483,13 +2519,13 @@
         <v>62</v>
       </c>
       <c r="E64" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F64" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="G64" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H64">
         <v>600</v>
@@ -2509,13 +2545,13 @@
         <v>63</v>
       </c>
       <c r="E65" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F65" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="G65" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H65">
         <v>600</v>
@@ -2535,13 +2571,13 @@
         <v>64</v>
       </c>
       <c r="E66" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F66" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="G66" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H66">
         <v>600</v>
@@ -2561,13 +2597,13 @@
         <v>65</v>
       </c>
       <c r="E67" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F67" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="G67" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H67">
         <v>600</v>
@@ -2587,13 +2623,13 @@
         <v>31</v>
       </c>
       <c r="E68" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F68" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="G68" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H68">
         <v>200</v>
@@ -2613,13 +2649,13 @@
         <v>66</v>
       </c>
       <c r="E69" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F69" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="G69" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H69">
         <v>600</v>
@@ -2639,13 +2675,13 @@
         <v>67</v>
       </c>
       <c r="E70" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F70" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="G70" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H70">
         <v>600</v>
@@ -2665,13 +2701,13 @@
         <v>68</v>
       </c>
       <c r="E71" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F71" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="G71" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H71">
         <v>600</v>
@@ -2691,13 +2727,13 @@
         <v>69</v>
       </c>
       <c r="E72" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F72" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G72" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H72">
         <v>600</v>
@@ -2717,13 +2753,13 @@
         <v>37</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F73" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G73" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H73">
         <v>500</v>
@@ -2743,13 +2779,13 @@
         <v>70</v>
       </c>
       <c r="E74" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F74" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G74" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H74">
         <v>600</v>
@@ -2769,13 +2805,13 @@
         <v>30</v>
       </c>
       <c r="E75" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F75" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G75" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H75">
         <v>600</v>
@@ -2795,13 +2831,13 @@
         <v>71</v>
       </c>
       <c r="E76" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F76" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G76" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H76">
         <v>600</v>
@@ -2821,13 +2857,13 @@
         <v>72</v>
       </c>
       <c r="E77" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F77" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G77" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H77">
         <v>600</v>
@@ -2847,13 +2883,13 @@
         <v>73</v>
       </c>
       <c r="E78" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F78" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G78" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H78">
         <v>600</v>
@@ -2873,13 +2909,13 @@
         <v>74</v>
       </c>
       <c r="E79" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F79" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G79" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H79">
         <v>600</v>
@@ -2899,13 +2935,13 @@
         <v>54</v>
       </c>
       <c r="E80" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F80" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G80" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H80">
         <v>600</v>
@@ -2925,13 +2961,13 @@
         <v>75</v>
       </c>
       <c r="E81" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F81" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G81" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H81">
         <v>600</v>
@@ -2951,13 +2987,13 @@
         <v>76</v>
       </c>
       <c r="E82" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F82" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G82" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H82">
         <v>600</v>
@@ -2977,13 +3013,13 @@
         <v>30</v>
       </c>
       <c r="E83" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F83" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G83" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H83">
         <v>600</v>
@@ -3003,13 +3039,13 @@
         <v>40</v>
       </c>
       <c r="E84" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F84" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G84" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H84">
         <v>600</v>
@@ -3029,13 +3065,13 @@
         <v>39</v>
       </c>
       <c r="E85" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F85" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G85" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H85">
         <v>600</v>
@@ -3055,13 +3091,13 @@
         <v>36</v>
       </c>
       <c r="E86" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F86" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G86" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H86">
         <v>600</v>
@@ -3081,13 +3117,13 @@
         <v>77</v>
       </c>
       <c r="E87" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F87" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G87" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H87">
         <v>600</v>
@@ -3107,13 +3143,13 @@
         <v>78</v>
       </c>
       <c r="E88" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F88" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G88" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H88">
         <v>600</v>
@@ -3133,13 +3169,13 @@
         <v>79</v>
       </c>
       <c r="E89" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F89" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G89" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H89">
         <v>600</v>
@@ -3159,13 +3195,13 @@
         <v>80</v>
       </c>
       <c r="E90" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F90" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G90" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H90">
         <v>600</v>
@@ -3185,13 +3221,13 @@
         <v>35</v>
       </c>
       <c r="E91" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F91" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G91" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H91">
         <v>600</v>
@@ -3211,13 +3247,13 @@
         <v>81</v>
       </c>
       <c r="E92" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F92" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G92" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H92">
         <v>600</v>
@@ -3237,13 +3273,13 @@
         <v>82</v>
       </c>
       <c r="E93" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F93" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G93" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H93">
         <v>600</v>
@@ -3263,13 +3299,13 @@
         <v>83</v>
       </c>
       <c r="E94" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F94" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G94" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H94">
         <v>600</v>
@@ -3289,13 +3325,13 @@
         <v>84</v>
       </c>
       <c r="E95" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F95" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G95" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H95">
         <v>600</v>
@@ -3315,13 +3351,13 @@
         <v>14</v>
       </c>
       <c r="E96" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F96" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G96" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H96">
         <v>600</v>
@@ -3341,13 +3377,13 @@
         <v>46</v>
       </c>
       <c r="E97" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F97" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G97" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H97">
         <v>600</v>
@@ -3367,13 +3403,13 @@
         <v>58</v>
       </c>
       <c r="E98" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F98" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G98" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H98">
         <v>600</v>
@@ -3393,13 +3429,13 @@
         <v>85</v>
       </c>
       <c r="E99" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F99" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G99" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H99">
         <v>600</v>
@@ -3419,13 +3455,13 @@
         <v>56</v>
       </c>
       <c r="E100" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F100" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G100" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H100">
         <v>600</v>
@@ -3445,13 +3481,13 @@
         <v>86</v>
       </c>
       <c r="E101" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F101" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G101" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H101">
         <v>600</v>
@@ -3471,13 +3507,13 @@
         <v>87</v>
       </c>
       <c r="E102" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F102" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G102" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H102">
         <v>500</v>
@@ -3497,13 +3533,13 @@
         <v>88</v>
       </c>
       <c r="E103" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F103" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G103" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H103">
         <v>600</v>
@@ -3523,13 +3559,13 @@
         <v>89</v>
       </c>
       <c r="E104" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F104" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G104" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H104">
         <v>600</v>
@@ -3549,13 +3585,13 @@
         <v>90</v>
       </c>
       <c r="E105" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F105" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G105" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H105">
         <v>600</v>
@@ -3575,13 +3611,13 @@
         <v>91</v>
       </c>
       <c r="E106" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F106" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G106" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H106">
         <v>600</v>
@@ -3601,13 +3637,13 @@
         <v>92</v>
       </c>
       <c r="E107" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F107" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G107" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H107">
         <v>600</v>
@@ -3627,13 +3663,13 @@
         <v>93</v>
       </c>
       <c r="E108" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F108" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G108" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H108">
         <v>600</v>
@@ -3653,13 +3689,13 @@
         <v>94</v>
       </c>
       <c r="E109" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F109" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G109" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H109">
         <v>600</v>
@@ -3679,13 +3715,13 @@
         <v>34</v>
       </c>
       <c r="E110" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F110" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G110" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H110">
         <v>600</v>
@@ -3705,13 +3741,13 @@
         <v>73</v>
       </c>
       <c r="E111" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F111" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G111" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H111">
         <v>600</v>
@@ -3731,13 +3767,13 @@
         <v>95</v>
       </c>
       <c r="E112" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F112" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G112" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H112">
         <v>600</v>
@@ -3757,13 +3793,13 @@
         <v>96</v>
       </c>
       <c r="E113" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F113" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G113" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H113">
         <v>600</v>
@@ -3783,13 +3819,13 @@
         <v>97</v>
       </c>
       <c r="E114" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F114" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G114" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H114">
         <v>600</v>
@@ -3809,13 +3845,13 @@
         <v>98</v>
       </c>
       <c r="E115" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F115" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G115" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H115">
         <v>600</v>
@@ -3835,13 +3871,13 @@
         <v>99</v>
       </c>
       <c r="E116" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F116" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G116" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H116">
         <v>600</v>
@@ -3861,13 +3897,13 @@
         <v>100</v>
       </c>
       <c r="E117" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F117" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G117" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H117">
         <v>600</v>
@@ -3887,13 +3923,13 @@
         <v>101</v>
       </c>
       <c r="E118" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F118" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G118" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H118">
         <v>600</v>
@@ -3913,13 +3949,13 @@
         <v>102</v>
       </c>
       <c r="E119" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F119" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G119" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H119">
         <v>600</v>
@@ -3939,13 +3975,13 @@
         <v>103</v>
       </c>
       <c r="E120" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F120" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G120" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H120">
         <v>600</v>
@@ -3965,13 +4001,13 @@
         <v>104</v>
       </c>
       <c r="E121" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F121" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G121" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H121">
         <v>600</v>
@@ -3991,13 +4027,13 @@
         <v>105</v>
       </c>
       <c r="E122" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F122" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G122" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H122">
         <v>600</v>
@@ -4017,13 +4053,13 @@
         <v>106</v>
       </c>
       <c r="E123" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F123" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G123" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H123">
         <v>600</v>
@@ -4043,13 +4079,13 @@
         <v>107</v>
       </c>
       <c r="E124" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F124" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G124" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H124">
         <v>600</v>
@@ -4069,13 +4105,13 @@
         <v>108</v>
       </c>
       <c r="E125" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F125" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G125" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H125">
         <v>600</v>
@@ -4095,13 +4131,13 @@
         <v>109</v>
       </c>
       <c r="E126" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F126" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G126" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H126">
         <v>600</v>
@@ -4121,13 +4157,13 @@
         <v>40</v>
       </c>
       <c r="E127" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F127" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G127" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H127">
         <v>600</v>
@@ -4147,13 +4183,13 @@
         <v>24</v>
       </c>
       <c r="E128" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F128" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G128" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H128">
         <v>600</v>
@@ -4173,13 +4209,13 @@
         <v>110</v>
       </c>
       <c r="E129" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F129" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G129" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H129">
         <v>600</v>
@@ -4199,13 +4235,13 @@
         <v>111</v>
       </c>
       <c r="E130" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F130" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G130" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H130">
         <v>600</v>
@@ -4225,13 +4261,13 @@
         <v>101</v>
       </c>
       <c r="E131" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F131" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G131" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H131">
         <v>600</v>
@@ -4251,13 +4287,13 @@
         <v>112</v>
       </c>
       <c r="E132" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F132" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G132" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H132">
         <v>600</v>
@@ -4277,13 +4313,13 @@
         <v>113</v>
       </c>
       <c r="E133" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F133" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G133" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H133">
         <v>600</v>
@@ -4303,13 +4339,13 @@
         <v>69</v>
       </c>
       <c r="E134" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F134" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G134" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H134">
         <v>600</v>
@@ -4329,13 +4365,13 @@
         <v>30</v>
       </c>
       <c r="E135" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F135" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G135" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H135">
         <v>600</v>
@@ -4355,13 +4391,13 @@
         <v>73</v>
       </c>
       <c r="E136" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F136" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G136" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H136">
         <v>600</v>
@@ -4381,13 +4417,13 @@
         <v>69</v>
       </c>
       <c r="E137" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F137" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G137" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H137">
         <v>600</v>
@@ -4407,13 +4443,13 @@
         <v>114</v>
       </c>
       <c r="E138" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F138" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G138" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H138">
         <v>600</v>
@@ -4433,13 +4469,13 @@
         <v>115</v>
       </c>
       <c r="E139" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F139" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G139" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H139">
         <v>600</v>
@@ -4459,13 +4495,13 @@
         <v>116</v>
       </c>
       <c r="E140" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F140" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G140" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H140">
         <v>600</v>
@@ -4485,13 +4521,13 @@
         <v>117</v>
       </c>
       <c r="E141" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F141" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G141" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H141">
         <v>600</v>
@@ -4511,13 +4547,13 @@
         <v>32</v>
       </c>
       <c r="E142" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F142" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G142" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H142">
         <v>600</v>
@@ -4537,13 +4573,13 @@
         <v>118</v>
       </c>
       <c r="E143" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F143" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G143" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H143">
         <v>600</v>
@@ -4563,13 +4599,13 @@
         <v>119</v>
       </c>
       <c r="E144" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F144" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G144" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H144">
         <v>600</v>
@@ -4589,13 +4625,13 @@
         <v>69</v>
       </c>
       <c r="E145" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F145" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G145" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H145">
         <v>600</v>
@@ -4615,13 +4651,13 @@
         <v>120</v>
       </c>
       <c r="E146" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F146" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G146" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H146">
         <v>600</v>
@@ -4641,13 +4677,13 @@
         <v>121</v>
       </c>
       <c r="E147" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F147" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G147" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H147">
         <v>600</v>
@@ -4667,13 +4703,13 @@
         <v>122</v>
       </c>
       <c r="E148" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F148" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G148" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H148">
         <v>600</v>
@@ -4693,13 +4729,13 @@
         <v>30</v>
       </c>
       <c r="E149" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F149" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G149" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H149">
         <v>600</v>
@@ -4719,13 +4755,13 @@
         <v>123</v>
       </c>
       <c r="E150" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F150" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G150" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H150">
         <v>600</v>
@@ -4745,13 +4781,13 @@
         <v>124</v>
       </c>
       <c r="E151" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F151" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G151" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H151">
         <v>600</v>
@@ -4771,13 +4807,13 @@
         <v>77</v>
       </c>
       <c r="E152" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F152" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G152" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H152">
         <v>600</v>
@@ -4797,13 +4833,13 @@
         <v>125</v>
       </c>
       <c r="E153" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F153" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G153" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H153">
         <v>600</v>
@@ -4823,13 +4859,13 @@
         <v>126</v>
       </c>
       <c r="E154" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F154" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G154" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H154">
         <v>600</v>
@@ -4849,13 +4885,13 @@
         <v>127</v>
       </c>
       <c r="E155" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F155" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G155" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H155">
         <v>600</v>
@@ -4875,13 +4911,13 @@
         <v>47</v>
       </c>
       <c r="E156" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F156" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G156" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H156">
         <v>600</v>
@@ -4901,13 +4937,13 @@
         <v>128</v>
       </c>
       <c r="E157" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F157" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G157" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H157">
         <v>600</v>
@@ -4927,13 +4963,13 @@
         <v>75</v>
       </c>
       <c r="E158" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F158" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G158" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H158">
         <v>600</v>
@@ -4953,13 +4989,13 @@
         <v>84</v>
       </c>
       <c r="E159" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F159" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G159" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H159">
         <v>600</v>
@@ -4979,13 +5015,13 @@
         <v>40</v>
       </c>
       <c r="E160" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F160" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G160" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H160">
         <v>600</v>
@@ -5005,13 +5041,13 @@
         <v>101</v>
       </c>
       <c r="E161" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F161" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G161" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H161">
         <v>600</v>
@@ -5031,13 +5067,13 @@
         <v>129</v>
       </c>
       <c r="E162" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F162" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G162" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H162">
         <v>600</v>
@@ -5057,13 +5093,13 @@
         <v>36</v>
       </c>
       <c r="E163" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F163" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G163" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H163">
         <v>600</v>
@@ -5083,13 +5119,13 @@
         <v>130</v>
       </c>
       <c r="E164" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F164" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G164" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H164">
         <v>600</v>
@@ -5109,13 +5145,13 @@
         <v>131</v>
       </c>
       <c r="E165" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F165" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G165" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H165">
         <v>600</v>
@@ -5135,13 +5171,13 @@
         <v>63</v>
       </c>
       <c r="E166" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F166" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G166" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H166">
         <v>600</v>
@@ -5161,13 +5197,13 @@
         <v>132</v>
       </c>
       <c r="E167" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F167" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G167" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H167">
         <v>600</v>
@@ -5187,13 +5223,13 @@
         <v>36</v>
       </c>
       <c r="E168" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F168" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G168" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H168">
         <v>600</v>
@@ -5213,13 +5249,13 @@
         <v>14</v>
       </c>
       <c r="E169" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F169" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G169" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H169">
         <v>600</v>
@@ -5239,13 +5275,13 @@
         <v>41</v>
       </c>
       <c r="E170" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F170" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G170" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H170">
         <v>600</v>
@@ -5265,13 +5301,13 @@
         <v>133</v>
       </c>
       <c r="E171" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F171" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G171" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H171">
         <v>600</v>
@@ -5291,13 +5327,13 @@
         <v>134</v>
       </c>
       <c r="E172" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F172" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G172" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H172">
         <v>600</v>
@@ -5317,13 +5353,13 @@
         <v>69</v>
       </c>
       <c r="E173" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F173" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G173" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H173">
         <v>600</v>
@@ -5343,13 +5379,13 @@
         <v>69</v>
       </c>
       <c r="E174" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F174" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G174" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H174">
         <v>600</v>
@@ -5369,13 +5405,13 @@
         <v>135</v>
       </c>
       <c r="E175" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F175" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G175" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H175">
         <v>600</v>
@@ -5395,13 +5431,13 @@
         <v>136</v>
       </c>
       <c r="E176" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F176" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G176" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H176">
         <v>600</v>
@@ -5421,13 +5457,13 @@
         <v>30</v>
       </c>
       <c r="E177" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F177" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G177" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H177">
         <v>600</v>
@@ -5447,13 +5483,13 @@
         <v>137</v>
       </c>
       <c r="E178" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F178" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G178" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H178">
         <v>600</v>
@@ -5473,13 +5509,13 @@
         <v>31</v>
       </c>
       <c r="E179" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F179" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G179" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H179">
         <v>600</v>
@@ -5499,13 +5535,13 @@
         <v>138</v>
       </c>
       <c r="E180" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F180" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G180" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H180">
         <v>600</v>
@@ -5525,13 +5561,13 @@
         <v>50</v>
       </c>
       <c r="E181" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F181" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G181" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H181">
         <v>600</v>
@@ -5551,13 +5587,13 @@
         <v>88</v>
       </c>
       <c r="E182" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F182" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G182" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H182">
         <v>600</v>
@@ -5577,13 +5613,13 @@
         <v>117</v>
       </c>
       <c r="E183" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F183" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G183" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H183">
         <v>600</v>
@@ -5603,13 +5639,13 @@
         <v>29</v>
       </c>
       <c r="E184" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F184" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G184" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H184">
         <v>600</v>
@@ -5629,13 +5665,13 @@
         <v>139</v>
       </c>
       <c r="E185" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F185" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G185" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H185">
         <v>600</v>
@@ -5655,13 +5691,13 @@
         <v>140</v>
       </c>
       <c r="E186" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F186" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G186" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H186">
         <v>600</v>
@@ -5681,13 +5717,13 @@
         <v>86</v>
       </c>
       <c r="E187" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F187" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G187" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H187">
         <v>600</v>
@@ -5707,13 +5743,13 @@
         <v>141</v>
       </c>
       <c r="E188" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F188" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G188" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H188">
         <v>600</v>
@@ -5733,13 +5769,13 @@
         <v>54</v>
       </c>
       <c r="E189" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F189" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G189" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H189">
         <v>600</v>
@@ -5759,13 +5795,13 @@
         <v>113</v>
       </c>
       <c r="E190" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F190" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G190" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H190">
         <v>600</v>
@@ -5785,13 +5821,13 @@
         <v>142</v>
       </c>
       <c r="E191" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F191" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G191" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H191">
         <v>600</v>
@@ -5811,15 +5847,665 @@
         <v>65</v>
       </c>
       <c r="E192" t="s">
+        <v>154</v>
+      </c>
+      <c r="F192" t="s">
+        <v>158</v>
+      </c>
+      <c r="G192" t="s">
+        <v>160</v>
+      </c>
+      <c r="H192">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
+      <c r="A193" t="s">
+        <v>9</v>
+      </c>
+      <c r="B193" t="s">
+        <v>10</v>
+      </c>
+      <c r="C193" s="2">
+        <v>45601.5625</v>
+      </c>
+      <c r="D193" t="s">
         <v>143</v>
       </c>
-      <c r="F192" t="s">
+      <c r="E193" t="s">
+        <v>154</v>
+      </c>
+      <c r="F193" t="s">
+        <v>159</v>
+      </c>
+      <c r="G193" t="s">
+        <v>160</v>
+      </c>
+      <c r="H193">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
+      <c r="A194" t="s">
+        <v>9</v>
+      </c>
+      <c r="B194" t="s">
+        <v>10</v>
+      </c>
+      <c r="C194" s="2">
+        <v>45608.62083333333</v>
+      </c>
+      <c r="D194" t="s">
+        <v>34</v>
+      </c>
+      <c r="E194" t="s">
+        <v>154</v>
+      </c>
+      <c r="F194" t="s">
+        <v>159</v>
+      </c>
+      <c r="G194" t="s">
+        <v>160</v>
+      </c>
+      <c r="H194">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
+      <c r="A195" t="s">
+        <v>9</v>
+      </c>
+      <c r="B195" t="s">
+        <v>10</v>
+      </c>
+      <c r="C195" s="2">
+        <v>45615.31666666667</v>
+      </c>
+      <c r="D195" t="s">
+        <v>144</v>
+      </c>
+      <c r="E195" t="s">
+        <v>154</v>
+      </c>
+      <c r="F195" t="s">
+        <v>159</v>
+      </c>
+      <c r="G195" t="s">
+        <v>160</v>
+      </c>
+      <c r="H195">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
+      <c r="A196" t="s">
+        <v>9</v>
+      </c>
+      <c r="B196" t="s">
+        <v>10</v>
+      </c>
+      <c r="C196" s="2">
+        <v>45623.57986111111</v>
+      </c>
+      <c r="D196" t="s">
+        <v>90</v>
+      </c>
+      <c r="E196" t="s">
+        <v>154</v>
+      </c>
+      <c r="F196" t="s">
+        <v>159</v>
+      </c>
+      <c r="G196" t="s">
+        <v>160</v>
+      </c>
+      <c r="H196">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
+      <c r="A197" t="s">
+        <v>9</v>
+      </c>
+      <c r="B197" t="s">
+        <v>10</v>
+      </c>
+      <c r="C197" s="2">
+        <v>45636.61180555556</v>
+      </c>
+      <c r="D197" t="s">
+        <v>145</v>
+      </c>
+      <c r="E197" t="s">
+        <v>154</v>
+      </c>
+      <c r="F197" t="s">
+        <v>159</v>
+      </c>
+      <c r="G197" t="s">
+        <v>160</v>
+      </c>
+      <c r="H197">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
+      <c r="A198" t="s">
+        <v>9</v>
+      </c>
+      <c r="B198" t="s">
+        <v>10</v>
+      </c>
+      <c r="C198" s="2">
+        <v>45643.56041666667</v>
+      </c>
+      <c r="D198" t="s">
+        <v>146</v>
+      </c>
+      <c r="E198" t="s">
+        <v>154</v>
+      </c>
+      <c r="F198" t="s">
+        <v>159</v>
+      </c>
+      <c r="G198" t="s">
+        <v>160</v>
+      </c>
+      <c r="H198">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
+      <c r="A199" t="s">
+        <v>9</v>
+      </c>
+      <c r="B199" t="s">
+        <v>10</v>
+      </c>
+      <c r="C199" s="2">
+        <v>45649.55763888889</v>
+      </c>
+      <c r="D199" t="s">
+        <v>77</v>
+      </c>
+      <c r="E199" t="s">
+        <v>154</v>
+      </c>
+      <c r="F199" t="s">
+        <v>159</v>
+      </c>
+      <c r="G199" t="s">
+        <v>160</v>
+      </c>
+      <c r="H199">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
+      <c r="A200" t="s">
+        <v>9</v>
+      </c>
+      <c r="B200" t="s">
+        <v>10</v>
+      </c>
+      <c r="C200" s="2">
+        <v>45656.29930555556</v>
+      </c>
+      <c r="D200" t="s">
         <v>147</v>
       </c>
-      <c r="G192" t="s">
+      <c r="E200" t="s">
+        <v>154</v>
+      </c>
+      <c r="F200" t="s">
+        <v>159</v>
+      </c>
+      <c r="G200" t="s">
+        <v>160</v>
+      </c>
+      <c r="H200">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
+      <c r="A201" t="s">
+        <v>9</v>
+      </c>
+      <c r="B201" t="s">
+        <v>10</v>
+      </c>
+      <c r="C201" s="2">
+        <v>45664.63819444444</v>
+      </c>
+      <c r="D201" t="s">
+        <v>65</v>
+      </c>
+      <c r="E201" t="s">
+        <v>154</v>
+      </c>
+      <c r="F201" t="s">
+        <v>159</v>
+      </c>
+      <c r="G201" t="s">
+        <v>160</v>
+      </c>
+      <c r="H201">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
+      <c r="A202" t="s">
+        <v>9</v>
+      </c>
+      <c r="B202" t="s">
+        <v>10</v>
+      </c>
+      <c r="C202" s="2">
+        <v>45671.57777777778</v>
+      </c>
+      <c r="D202" t="s">
+        <v>62</v>
+      </c>
+      <c r="E202" t="s">
+        <v>154</v>
+      </c>
+      <c r="F202" t="s">
+        <v>159</v>
+      </c>
+      <c r="G202" t="s">
+        <v>160</v>
+      </c>
+      <c r="H202">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
+      <c r="A203" t="s">
+        <v>9</v>
+      </c>
+      <c r="B203" t="s">
+        <v>10</v>
+      </c>
+      <c r="C203" s="2">
+        <v>45679.5625</v>
+      </c>
+      <c r="D203" t="s">
+        <v>31</v>
+      </c>
+      <c r="E203" t="s">
+        <v>154</v>
+      </c>
+      <c r="F203" t="s">
+        <v>159</v>
+      </c>
+      <c r="G203" t="s">
+        <v>160</v>
+      </c>
+      <c r="H203">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
+      <c r="A204" t="s">
+        <v>9</v>
+      </c>
+      <c r="B204" t="s">
+        <v>10</v>
+      </c>
+      <c r="C204" s="2">
+        <v>45685.60555555556</v>
+      </c>
+      <c r="D204" t="s">
+        <v>73</v>
+      </c>
+      <c r="E204" t="s">
+        <v>154</v>
+      </c>
+      <c r="F204" t="s">
+        <v>159</v>
+      </c>
+      <c r="G204" t="s">
+        <v>160</v>
+      </c>
+      <c r="H204">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
+      <c r="A205" t="s">
+        <v>9</v>
+      </c>
+      <c r="B205" t="s">
+        <v>10</v>
+      </c>
+      <c r="C205" s="2">
+        <v>45692.55416666667</v>
+      </c>
+      <c r="D205" t="s">
+        <v>47</v>
+      </c>
+      <c r="E205" t="s">
+        <v>154</v>
+      </c>
+      <c r="F205" t="s">
+        <v>159</v>
+      </c>
+      <c r="G205" t="s">
+        <v>160</v>
+      </c>
+      <c r="H205">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
+      <c r="A206" t="s">
+        <v>9</v>
+      </c>
+      <c r="B206" t="s">
+        <v>10</v>
+      </c>
+      <c r="C206" s="2">
+        <v>45699.57916666667</v>
+      </c>
+      <c r="D206" t="s">
+        <v>11</v>
+      </c>
+      <c r="E206" t="s">
+        <v>154</v>
+      </c>
+      <c r="F206" t="s">
+        <v>159</v>
+      </c>
+      <c r="G206" t="s">
+        <v>160</v>
+      </c>
+      <c r="H206">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
+      <c r="A207" t="s">
+        <v>9</v>
+      </c>
+      <c r="B207" t="s">
+        <v>10</v>
+      </c>
+      <c r="C207" s="2">
+        <v>45706.57986111111</v>
+      </c>
+      <c r="D207" t="s">
         <v>148</v>
       </c>
-      <c r="H192">
+      <c r="E207" t="s">
+        <v>154</v>
+      </c>
+      <c r="F207" t="s">
+        <v>159</v>
+      </c>
+      <c r="G207" t="s">
+        <v>160</v>
+      </c>
+      <c r="H207">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
+      <c r="A208" t="s">
+        <v>9</v>
+      </c>
+      <c r="B208" t="s">
+        <v>10</v>
+      </c>
+      <c r="C208" s="2">
+        <v>45714.38611111111</v>
+      </c>
+      <c r="D208" t="s">
+        <v>115</v>
+      </c>
+      <c r="E208" t="s">
+        <v>154</v>
+      </c>
+      <c r="F208" t="s">
+        <v>159</v>
+      </c>
+      <c r="G208" t="s">
+        <v>160</v>
+      </c>
+      <c r="H208">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
+      <c r="A209" t="s">
+        <v>9</v>
+      </c>
+      <c r="B209" t="s">
+        <v>10</v>
+      </c>
+      <c r="C209" s="2">
+        <v>45720.56875</v>
+      </c>
+      <c r="D209" t="s">
+        <v>149</v>
+      </c>
+      <c r="E209" t="s">
+        <v>154</v>
+      </c>
+      <c r="F209" t="s">
+        <v>159</v>
+      </c>
+      <c r="G209" t="s">
+        <v>160</v>
+      </c>
+      <c r="H209">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
+      <c r="A210" t="s">
+        <v>9</v>
+      </c>
+      <c r="B210" t="s">
+        <v>10</v>
+      </c>
+      <c r="C210" s="2">
+        <v>45728.31597222222</v>
+      </c>
+      <c r="D210" t="s">
+        <v>32</v>
+      </c>
+      <c r="E210" t="s">
+        <v>154</v>
+      </c>
+      <c r="F210" t="s">
+        <v>159</v>
+      </c>
+      <c r="G210" t="s">
+        <v>160</v>
+      </c>
+      <c r="H210">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
+      <c r="A211" t="s">
+        <v>9</v>
+      </c>
+      <c r="B211" t="s">
+        <v>10</v>
+      </c>
+      <c r="C211" s="2">
+        <v>45734.54722222222</v>
+      </c>
+      <c r="D211" t="s">
+        <v>150</v>
+      </c>
+      <c r="E211" t="s">
+        <v>154</v>
+      </c>
+      <c r="F211" t="s">
+        <v>159</v>
+      </c>
+      <c r="G211" t="s">
+        <v>160</v>
+      </c>
+      <c r="H211">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
+      <c r="A212" t="s">
+        <v>9</v>
+      </c>
+      <c r="B212" t="s">
+        <v>10</v>
+      </c>
+      <c r="C212" s="2">
+        <v>45741.57361111111</v>
+      </c>
+      <c r="D212" t="s">
+        <v>113</v>
+      </c>
+      <c r="E212" t="s">
+        <v>154</v>
+      </c>
+      <c r="F212" t="s">
+        <v>159</v>
+      </c>
+      <c r="G212" t="s">
+        <v>160</v>
+      </c>
+      <c r="H212">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
+      <c r="A213" t="s">
+        <v>9</v>
+      </c>
+      <c r="B213" t="s">
+        <v>10</v>
+      </c>
+      <c r="C213" s="2">
+        <v>45748.53055555555</v>
+      </c>
+      <c r="D213" t="s">
+        <v>151</v>
+      </c>
+      <c r="E213" t="s">
+        <v>154</v>
+      </c>
+      <c r="F213" t="s">
+        <v>159</v>
+      </c>
+      <c r="G213" t="s">
+        <v>160</v>
+      </c>
+      <c r="H213">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
+      <c r="A214" t="s">
+        <v>9</v>
+      </c>
+      <c r="B214" t="s">
+        <v>10</v>
+      </c>
+      <c r="C214" s="2">
+        <v>45756.35416666666</v>
+      </c>
+      <c r="D214" t="s">
+        <v>144</v>
+      </c>
+      <c r="E214" t="s">
+        <v>154</v>
+      </c>
+      <c r="F214" t="s">
+        <v>159</v>
+      </c>
+      <c r="G214" t="s">
+        <v>160</v>
+      </c>
+      <c r="H214">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
+      <c r="A215" t="s">
+        <v>9</v>
+      </c>
+      <c r="B215" t="s">
+        <v>10</v>
+      </c>
+      <c r="C215" s="2">
+        <v>45762.35763888889</v>
+      </c>
+      <c r="D215" t="s">
+        <v>152</v>
+      </c>
+      <c r="E215" t="s">
+        <v>154</v>
+      </c>
+      <c r="F215" t="s">
+        <v>159</v>
+      </c>
+      <c r="G215" t="s">
+        <v>160</v>
+      </c>
+      <c r="H215">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
+      <c r="A216" t="s">
+        <v>9</v>
+      </c>
+      <c r="B216" t="s">
+        <v>10</v>
+      </c>
+      <c r="C216" s="2">
+        <v>45770.60416666666</v>
+      </c>
+      <c r="D216" t="s">
+        <v>153</v>
+      </c>
+      <c r="E216" t="s">
+        <v>154</v>
+      </c>
+      <c r="F216" t="s">
+        <v>159</v>
+      </c>
+      <c r="G216" t="s">
+        <v>160</v>
+      </c>
+      <c r="H216">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
+      <c r="A217" t="s">
+        <v>9</v>
+      </c>
+      <c r="B217" t="s">
+        <v>10</v>
+      </c>
+      <c r="C217" s="2">
+        <v>45776.60694444444</v>
+      </c>
+      <c r="D217" t="s">
+        <v>117</v>
+      </c>
+      <c r="E217" t="s">
+        <v>154</v>
+      </c>
+      <c r="F217" t="s">
+        <v>159</v>
+      </c>
+      <c r="G217" t="s">
+        <v>160</v>
+      </c>
+      <c r="H217">
         <v>600</v>
       </c>
     </row>
